--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7598018216394755</v>
+        <v>0.7373522689611616</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7537503847662262</v>
+        <v>0.7724715596559656</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7787282179463338</v>
+        <v>0.7712374892765229</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.745</v>
+        <v>0.8837436420913477</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7474115896358543</v>
+        <v>0.8987501582033721</v>
       </c>
     </row>
     <row r="7">
@@ -537,67 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8862388013170417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8786584184427439</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8887494785082916</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9112051837051836</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8837472752841907</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>F1-Score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Processing Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,7 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7373522689611616</v>
+        <v>0.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0117495059967041</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7724715596559656</v>
+        <v>0.7374901560039001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0137531757354736</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7712374892765229</v>
+        <v>0.7487488222490629</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0243992805480957</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8837436420913477</v>
+        <v>0.8736546418836819</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3040676116943359</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8987501582033721</v>
+        <v>0.8687493847569732</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2513525485992431</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.893637811663598</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2359294891357422</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,31 @@
           <t>Processing Time</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ROC AUC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,10 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0.7574969687310545</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0117495059967041</v>
+        <v>0.0168755054473876</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8478177988612428</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.73046875</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7575318142895537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7575</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7575</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7374901560039001</v>
+        <v>0.7698964475765857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0137531757354736</v>
+        <v>0.009270906448364201</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8521615760098501</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7704097400930431</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +554,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7487488222490629</v>
+        <v>0.8949527260675717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0243992805480957</v>
+        <v>0.2439048290252685</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.964706029412684</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8956226246157121</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.895</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8736546418836819</v>
+        <v>0.8937495019461211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3040676116943359</v>
+        <v>0.2021410465240478</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9599059994124962</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.893751796919923</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.89375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.89375</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +620,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8687493847569732</v>
+        <v>0.9362485058010078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2513525485992431</v>
+        <v>1.866212844848633</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9806436290226814</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9362733460846084</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.93625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.93625</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +653,2801 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9262427393154448</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.918002843856812</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9799248745304658</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9140625</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.926377363445378</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.92625</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.92625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8037490800766877</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0441508293151855</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8037581484884281</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.01171875</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8037707661441535</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.80375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.80375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8060757837337426</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0355274677276611</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8063269145432159</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8074809940786832</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.80625</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.80625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8773988464618157</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2254040241241455</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9505590659941624</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.27734375</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8786288259307335</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8774999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8949132969672706</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2424442768096923</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.96057475359221</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.16015625</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8961843532679923</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8849597338935574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0548281669616699</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9548840930255816</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.94921875</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8854622124863089</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.885</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0535588264465332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9538403365021032</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8825</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8825</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7510262952101661</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0203442573547363</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8326739542122138</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7520478096146125</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.75125</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.75125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.738028252717617</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0160150527954101</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8038237738985869</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.94921875</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7412186386157384</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.73875</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.73875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8487492910056548</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.72995924949646</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9263120394502464</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8487512344058601</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.84875</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.84875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8561603190636048</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7584929466247559</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9323558272239202</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8570386904761905</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.85625</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.85625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8887494785082916</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0991513729095459</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.952662204138776</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8887517344183604</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.88875</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88875</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8912066503467971</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1047768592834472</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9538747117169484</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.16796875</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8917908653846155</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.89125</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.89125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7398536585365854</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0156891345977783</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8053862836642729</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7404577828726063</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7486231257005906</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009626626968383701</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8323052019075119</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7491734668954632</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.74875</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.74875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.893637811663598</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2359294891357422</v>
+      <c r="C22" t="n">
+        <v>0.8587502207034698</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2358551025390625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9307995674972968</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.12890625</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8587531250000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.85875</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.85875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8412492558582122</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2220127582550048</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9285620535128344</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.3359375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8412721724293106</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8412500000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8412500000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8574821857185719</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.815145254135132</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9465371658572866</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.1796875</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8577324614336008</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8575</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8575</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8524612693887503</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.788999319076538</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9371183569897312</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.2734375</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8528065112525105</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8525</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7799229764115261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0269026756286621</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7800486253039082</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.26171875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7804706618682522</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.75372575790959</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0265638828277587</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7537765861036632</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.30078125</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.753892369447779</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.75375</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.75375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8512502324222382</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2327704429626464</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9221213882586766</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.59765625</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8512531250000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.85125</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.85125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8437023758352546</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2353949546813964</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9239870249189056</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.7734375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8441008203799655</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8287491972543364</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0462994575500488</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9154025962662268</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.26953125</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8287509843996099</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.82875</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.82875</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8474714017815285</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0422248840332031</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9129244557778486</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.3203125</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8478244328523447</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8475</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8475</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7024776862448513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0132453441619873</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7795861224132651</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.30859375</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7025959043707135</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.7025</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7025</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6944805617646875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0137369632720947</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7736735854599091</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.3125</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6961951343833971</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8187219575888566</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6240720748901367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9064119150744694</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.8671875</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8189012664165102</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.81875</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.81875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8312460447673737</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6688539981842041</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9099494371839824</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.94921875</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8312654702970298</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.83125</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.83125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8487161961517964</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0761454105377197</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9276932980831132</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.9453125</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8490035719647682</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.84875</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.84875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8524981562384764</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0893721580505371</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9268339177119858</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.35546875</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8525389396903575</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8525</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7409767884042918</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0360877513885498</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8232176451102819</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.3359375</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.7421557800456929</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.74125</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.74125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7287232967836601</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0282874107360839</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8088175551097194</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.29296875</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7288811149459784</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.72875</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.72875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8599824972651976</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3067502975463867</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9315808223801398</v>
+      </c>
+      <c r="F40" t="n">
+        <v>18.40625</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.8601370693913793</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8737375713140537</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.282681941986084</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9463496646854044</v>
+      </c>
+      <c r="F41" t="n">
+        <v>18.3203125</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8739463910564226</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.87375</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.87375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8437023758352546</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.807961463928223</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9420933880836756</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.4765625</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.8441008203799655</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8662293066345356</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.851978302001953</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.943718398239989</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.49609375</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8664280018761726</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.86625</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.86625</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7648383364602875</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0444207191467285</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7650672816705104</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.55078125</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7658362423930959</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.765</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7637134504523229</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0423729419708251</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7637828986431165</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.55859375</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7639658380237648</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.76375</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.76375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8399799968745117</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2579793930053711</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9160588503678148</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.66796875</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8401280648328217</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8374796854685468</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2646746635437011</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9188088675554222</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.96875</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8377212057354035</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.847480934521019</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06457352638244621</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9137744610903816</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.54296875</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8476314415422809</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8475</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8475</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8387008561635807</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06500101089477529</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9106244414027588</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.59765625</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8392420871817978</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.83875</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.83875</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6894720463837807</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0302045345306396</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7667110419440122</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.484375</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6911619082379445</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6837485175572782</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0347228050231933</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7537359608497552</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.6837491718542964</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.68375</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.68375</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8261416165993631</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6673731803894043</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9103244395277472</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.9453125</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8271743421052631</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.82625</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.82625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8274396008403362</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.688312292098999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9069837936487104</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.1171875</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8278866374589267</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8275</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8274870612061207</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0996809005737304</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9106619416371352</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5.75390625</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8275672393420485</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8275</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IncPCA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8362246651320016</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1146132946014404</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9235995224970156</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.8364111163227017</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.83625</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.83625</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.6947023105655349</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0451617240905761</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7695798098738117</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.3046875</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6956588235294118</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.6743037415669103</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0153095722198486</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7432546453415335</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.28125</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6763559770788811</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6881872138076787</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3848998546600342</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7597047481546759</v>
+      </c>
+      <c r="F58" t="n">
+        <v>30.18359375</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6899793665483116</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.68875</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.68875</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7073160505440902</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.3993165493011474</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7805673785461159</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30.48046875</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.7126734623623011</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.70875</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.70875</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.7137057123299875</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.790305852890015</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7802861267882922</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.4609375</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.7138421669793621</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.71375</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.71375</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6820826944140197</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.808507919311524</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7754423465146657</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.4765625</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.683343119145006</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6825</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6006891438593527</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.025003433227539</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6013443834023963</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.59375</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6019392677561283</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.60125</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.60125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6237129582025225</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0240578651428222</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.623725773286083</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.6171875</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.6237714460784314</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.62375</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.62375</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6549870621765543</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.3129146099090576</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7090575566097289</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15.4140625</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.6550478199718706</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6699752486077343</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2576861381530761</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7422796392477453</v>
+      </c>
+      <c r="F65" t="n">
+        <v>16.08203125</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.6700845258860525</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6749959374746092</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0640583038330078</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7279045494034337</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.54296875</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.6750256264414873</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6624367045085144</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0373589992523193</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7196794979968626</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.54296875</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6625805296505481</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6399729972997299</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0170905590057373</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6864730404565028</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.4296875</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.6400180055141886</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6098244297719088</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0175442695617675</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6788917430733943</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6102671074628547</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6706555712105201</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.3977563381195068</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7325452034075214</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.859375</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6723557547027272</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.67125</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.67125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7019298767504196</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4023776054382324</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7761236007725049</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.81640625</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.703910643993072</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.7025</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.7025</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7049778737553987</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.134394884109497</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7708985681160507</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5.6328125</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.7050967796387644</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1279160976409912</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7288358052237827</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.94921875</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.6600082500515628</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.7285060606060605</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0130872726440429</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.810855067844174</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.16015625</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.7294699041549577</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.72875</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.72875</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7318123454321918</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0449080467224121</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8057862861642885</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.14453125</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.7403885091648646</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.73375</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.73375</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.7680486108389826</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.444908857345581</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8387614922593266</v>
+      </c>
+      <c r="F76" t="n">
+        <v>28.67578125</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.7718308723048892</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.76875</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.76875</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.7373818151689292</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3430244922637939</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7892049325308284</v>
+      </c>
+      <c r="F77" t="n">
+        <v>27.84765625</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.7378543901171492</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.738028252717617</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2741575241088867</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8223238895243095</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.55078125</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.7412186386157384</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.73875</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.73875</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.740601826829532</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2175512313842773</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.806311289445559</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.42578125</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.743502840909091</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.74125</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.74125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6712320207820619</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0164682865142822</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6712698204363777</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.47265625</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.6713168431647121</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.67125</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.67125</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DecisionTree</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6549956874730466</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0168225765228271</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6550103438146488</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.3671875</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6550241263571075</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.657495718723242</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.2638421058654785</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7408952555953475</v>
+      </c>
+      <c r="F82" t="n">
+        <v>15.37890625</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.6575243138676551</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.6575</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.6575</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6374320206282232</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2614352703094482</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7384296151850949</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16.30078125</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.637651051732873</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.6375</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.7169586224604825</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0387179851531982</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7603422521390759</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.46875</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.7190230672335065</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.7175</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.7175</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7024962812267578</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.043299913406372</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7671047944049652</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.44140625</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.7025276890575095</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.7025</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7025</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7424323855430726</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.012833833694458</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8299426871417946</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.42578125</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.7426991478499164</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.7425</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7425</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0119757652282714</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8432052700329377</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.2578125</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.723748705059915</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1693551540374755</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7962674766717293</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.58984375</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.7237496718667967</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.72375</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.72375</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.726977786267191</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1844544410705566</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8071206695041844</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.5703125</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.7290980160604629</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.7275</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.7275</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7178173374977069</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.049612283706665</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7834298964368528</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.08984375</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.7214754978338527</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LDA</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.728545121670881</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0623974800109863</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8070019187619922</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.703125</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.7293466956292787</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.72875</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.72875</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7574969687310545</v>
+        <v>0.784973120800125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0168755054473876</v>
+        <v>0.0086846351623535</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8478177988612428</v>
+        <v>0.8599553747210921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.73046875</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7575318142895537</v>
+        <v>0.7851033022967877</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7575</v>
+        <v>0.785</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7575</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7698964475765857</v>
+        <v>0.7349801230123012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009270906448364201</v>
+        <v>0.0160880088806152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8521615760098501</v>
+        <v>0.82822392639954</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.69921875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7704097400930431</v>
+        <v>0.7350429506536378</v>
       </c>
       <c r="H3" t="n">
-        <v>0.77</v>
+        <v>0.735</v>
       </c>
       <c r="I3" t="n">
-        <v>0.77</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="4">
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8949527260675717</v>
+        <v>0.904982184716362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439048290252685</v>
+        <v>0.2330572605133056</v>
       </c>
       <c r="E4" t="n">
-        <v>0.964706029412684</v>
+        <v>0.9658060362877268</v>
       </c>
       <c r="F4" t="n">
-        <v>15.75</v>
+        <v>16.52734375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8956226246157121</v>
+        <v>0.9053719062541046</v>
       </c>
       <c r="H4" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="5">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8937495019461211</v>
+        <v>0.8837145676214294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2021410465240478</v>
+        <v>0.2488079071044922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9599059994124962</v>
+        <v>0.9548497178107362</v>
       </c>
       <c r="F5" t="n">
-        <v>15.75</v>
+        <v>16.265625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.893751796919923</v>
+        <v>0.8841463761858276</v>
       </c>
       <c r="H5" t="n">
-        <v>0.89375</v>
+        <v>0.88375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.89375</v>
+        <v>0.88375</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +624,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9362485058010078</v>
+        <v>0.92</v>
       </c>
       <c r="D6" t="n">
-        <v>1.866212844848633</v>
+        <v>1.84067702293396</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9806436290226814</v>
+        <v>0.97811236320227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.859375</v>
+        <v>0.91015625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9362733460846084</v>
+        <v>0.92</v>
       </c>
       <c r="H6" t="n">
-        <v>0.93625</v>
+        <v>0.92</v>
       </c>
       <c r="I6" t="n">
-        <v>0.93625</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7">
@@ -657,25 +657,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9262427393154448</v>
+        <v>0.931243231565245</v>
       </c>
       <c r="D7" t="n">
-        <v>1.918002843856812</v>
+        <v>1.957672357559204</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9799248745304658</v>
+        <v>0.980312376952356</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9140625</v>
+        <v>0.9375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.926377363445378</v>
+        <v>0.9313791141456584</v>
       </c>
       <c r="H7" t="n">
-        <v>0.92625</v>
+        <v>0.93125</v>
       </c>
       <c r="I7" t="n">
-        <v>0.92625</v>
+        <v>0.93125</v>
       </c>
     </row>
     <row r="8">
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8037490800766877</v>
+        <v>0.7912385831102694</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0441508293151855</v>
+        <v>0.032560110092163</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8037581484884281</v>
+        <v>0.7912330702066888</v>
       </c>
       <c r="F8" t="n">
-        <v>1.01171875</v>
+        <v>1.02734375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8037707661441535</v>
+        <v>0.7912889931484586</v>
       </c>
       <c r="H8" t="n">
-        <v>0.80375</v>
+        <v>0.79125</v>
       </c>
       <c r="I8" t="n">
-        <v>0.80375</v>
+        <v>0.79125</v>
       </c>
     </row>
     <row r="9">
@@ -723,25 +723,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8060757837337426</v>
+        <v>0.7825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0355274677276611</v>
+        <v>0.0295658111572265</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8063269145432159</v>
+        <v>0.7825048906555666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.97265625</v>
+        <v>0.890625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8074809940786832</v>
+        <v>0.7825097813111332</v>
       </c>
       <c r="H9" t="n">
-        <v>0.80625</v>
+        <v>0.7825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.80625</v>
+        <v>0.7825</v>
       </c>
     </row>
     <row r="10">
@@ -756,25 +756,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8773988464618157</v>
+        <v>0.8836272527613486</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2254040241241455</v>
+        <v>0.3033652305603027</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9505590659941624</v>
+        <v>0.9552153450959068</v>
       </c>
       <c r="F10" t="n">
-        <v>9.27734375</v>
+        <v>8.70703125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8786288259307335</v>
+        <v>0.8852371425522833</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8774999999999999</v>
+        <v>0.88375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8774999999999999</v>
+        <v>0.88375</v>
       </c>
     </row>
     <row r="11">
@@ -789,25 +789,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8949132969672706</v>
+        <v>0.8987495253898834</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2424442768096923</v>
+        <v>0.3300561904907226</v>
       </c>
       <c r="E11" t="n">
-        <v>0.96057475359221</v>
+        <v>0.9569372308576928</v>
       </c>
       <c r="F11" t="n">
-        <v>9.16015625</v>
+        <v>8.59375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8961843532679923</v>
+        <v>0.8987743287332183</v>
       </c>
       <c r="H11" t="n">
-        <v>0.895</v>
+        <v>0.89875</v>
       </c>
       <c r="I11" t="n">
-        <v>0.895</v>
+        <v>0.89875</v>
       </c>
     </row>
     <row r="12">
@@ -822,19 +822,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8849597338935574</v>
+        <v>0.8849913741374138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0548281669616699</v>
+        <v>0.0510866641998291</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9548840930255816</v>
+        <v>0.9488871805448784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.94921875</v>
+        <v>0.91796875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8854622124863089</v>
+        <v>0.8850823377159255</v>
       </c>
       <c r="H12" t="n">
         <v>0.885</v>
@@ -855,25 +855,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8825</v>
+        <v>0.9037477441089016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0535588264465332</v>
+        <v>0.0609011650085449</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9538403365021032</v>
+        <v>0.9561809761311008</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9453125</v>
+        <v>0.97265625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8825</v>
+        <v>0.903816100360036</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8825</v>
+        <v>0.9037500000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8825</v>
+        <v>0.9037500000000001</v>
       </c>
     </row>
     <row r="14">
@@ -888,19 +888,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7510262952101661</v>
+        <v>0.7511508438966972</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0203442573547363</v>
+        <v>0.0155537128448486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8326739542122138</v>
+        <v>0.8201301258132863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7520478096146125</v>
+        <v>0.7515805288461539</v>
       </c>
       <c r="H14" t="n">
         <v>0.75125</v>
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.738028252717617</v>
+        <v>0.7462107430784209</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0160150527954101</v>
+        <v>0.0150928497314453</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8038237738985869</v>
+        <v>0.8318676991731199</v>
       </c>
       <c r="F15" t="n">
-        <v>0.94921875</v>
+        <v>0.96484375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7412186386157384</v>
+        <v>0.7464537992495309</v>
       </c>
       <c r="H15" t="n">
-        <v>0.73875</v>
+        <v>0.74625</v>
       </c>
       <c r="I15" t="n">
-        <v>0.73875</v>
+        <v>0.74625</v>
       </c>
     </row>
     <row r="16">
@@ -954,25 +954,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8487492910056548</v>
+        <v>0.8537420013407276</v>
       </c>
       <c r="D16" t="n">
-        <v>0.72995924949646</v>
+        <v>0.7862718105316162</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9263120394502464</v>
+        <v>0.9324120775754848</v>
       </c>
       <c r="F16" t="n">
-        <v>1.3125</v>
+        <v>1.19921875</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8487512344058601</v>
+        <v>0.8538007145357704</v>
       </c>
       <c r="H16" t="n">
-        <v>0.84875</v>
+        <v>0.85375</v>
       </c>
       <c r="I16" t="n">
-        <v>0.84875</v>
+        <v>0.85375</v>
       </c>
     </row>
     <row r="17">
@@ -987,25 +987,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8561603190636048</v>
+        <v>0.8611799350883858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7584929466247559</v>
+        <v>0.7356212139129639</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9323558272239202</v>
+        <v>0.9336183351145946</v>
       </c>
       <c r="F17" t="n">
-        <v>1.3125</v>
+        <v>1.58203125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8570386904761905</v>
+        <v>0.861889059720935</v>
       </c>
       <c r="H17" t="n">
-        <v>0.85625</v>
+        <v>0.86125</v>
       </c>
       <c r="I17" t="n">
-        <v>0.85625</v>
+        <v>0.86125</v>
       </c>
     </row>
     <row r="18">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8887494785082916</v>
+        <v>0.8936697481199303</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0991513729095459</v>
+        <v>0.1140472888946533</v>
       </c>
       <c r="E18" t="n">
-        <v>0.952662204138776</v>
+        <v>0.9546309664435404</v>
       </c>
       <c r="F18" t="n">
-        <v>5.875</v>
+        <v>5.578125</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8887517344183604</v>
+        <v>0.8948245787256451</v>
       </c>
       <c r="H18" t="n">
-        <v>0.88875</v>
+        <v>0.89375</v>
       </c>
       <c r="I18" t="n">
-        <v>0.88875</v>
+        <v>0.89375</v>
       </c>
     </row>
     <row r="19">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8912066503467971</v>
+        <v>0.902481714635793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1047768592834472</v>
+        <v>0.09500646591186521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9538747117169484</v>
+        <v>0.9618810117563232</v>
       </c>
       <c r="F19" t="n">
-        <v>5.16796875</v>
+        <v>5.41015625</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8917908653846155</v>
+        <v>0.9027456545262356</v>
       </c>
       <c r="H19" t="n">
-        <v>0.89125</v>
+        <v>0.9025</v>
       </c>
       <c r="I19" t="n">
-        <v>0.89125</v>
+        <v>0.9025</v>
       </c>
     </row>
     <row r="20">
@@ -1086,25 +1086,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7398536585365854</v>
+        <v>0.7862022312030867</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0156891345977783</v>
+        <v>0.009504318237304601</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8053862836642729</v>
+        <v>0.8629303933149584</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7404577828726063</v>
+        <v>0.7865700067560805</v>
       </c>
       <c r="H20" t="n">
-        <v>0.74</v>
+        <v>0.78625</v>
       </c>
       <c r="I20" t="n">
-        <v>0.74</v>
+        <v>0.78625</v>
       </c>
     </row>
     <row r="21">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7486231257005906</v>
+        <v>0.8049756225622562</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009626626968383701</v>
+        <v>0.0118505954742431</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8323052019075119</v>
+        <v>0.882355514721967</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.06640625</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7491734668954632</v>
+        <v>0.8052029152258331</v>
       </c>
       <c r="H21" t="n">
-        <v>0.74875</v>
+        <v>0.805</v>
       </c>
       <c r="I21" t="n">
-        <v>0.74875</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="22">
@@ -1152,25 +1152,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8587502207034698</v>
+        <v>0.8749671774480935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2358551025390625</v>
+        <v>0.2339460849761963</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9307995674972968</v>
+        <v>0.9437308983181144</v>
       </c>
       <c r="F22" t="n">
-        <v>18.12890625</v>
+        <v>17.640625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8587531250000001</v>
+        <v>0.8753284719484955</v>
       </c>
       <c r="H22" t="n">
-        <v>0.85875</v>
+        <v>0.875</v>
       </c>
       <c r="I22" t="n">
-        <v>0.85875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23">
@@ -1185,25 +1185,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8412492558582122</v>
+        <v>0.8837320141776804</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2220127582550048</v>
+        <v>0.2699954509735107</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9285620535128344</v>
+        <v>0.9536997106231913</v>
       </c>
       <c r="F23" t="n">
-        <v>17.3359375</v>
+        <v>17.48046875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8412721724293106</v>
+        <v>0.8839378517823639</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8412500000000001</v>
+        <v>0.88375</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8412500000000001</v>
+        <v>0.88375</v>
       </c>
     </row>
     <row r="24">
@@ -1218,25 +1218,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8574821857185719</v>
+        <v>0.8886659715608682</v>
       </c>
       <c r="D24" t="n">
-        <v>1.815145254135132</v>
+        <v>1.921075582504272</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9465371658572866</v>
+        <v>0.9536497103106896</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1796875</v>
+        <v>1.23046875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8577324614336008</v>
+        <v>0.8898100974196946</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8575</v>
+        <v>0.88875</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8575</v>
+        <v>0.88875</v>
       </c>
     </row>
     <row r="25">
@@ -1251,25 +1251,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8524612693887503</v>
+        <v>0.8762308538020469</v>
       </c>
       <c r="D25" t="n">
-        <v>1.788999319076538</v>
+        <v>1.924085140228272</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9371183569897312</v>
+        <v>0.9502746892168076</v>
       </c>
       <c r="F25" t="n">
-        <v>1.2734375</v>
+        <v>1.2578125</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8528065112525105</v>
+        <v>0.8764336303939961</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8525</v>
+        <v>0.87625</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8525</v>
+        <v>0.87625</v>
       </c>
     </row>
     <row r="26">
@@ -1284,25 +1284,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7799229764115261</v>
+        <v>0.80109990243277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0269026756286621</v>
+        <v>0.0318951606750488</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7800486253039082</v>
+        <v>0.8013206332539579</v>
       </c>
       <c r="F26" t="n">
-        <v>1.26171875</v>
+        <v>1.25390625</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7804706618682522</v>
+        <v>0.8022776868778054</v>
       </c>
       <c r="H26" t="n">
-        <v>0.78</v>
+        <v>0.80125</v>
       </c>
       <c r="I26" t="n">
-        <v>0.78</v>
+        <v>0.80125</v>
       </c>
     </row>
     <row r="27">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.75372575790959</v>
+        <v>0.805</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0265638828277587</v>
+        <v>0.0272600650787353</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7537765861036632</v>
+        <v>0.8050050312814455</v>
       </c>
       <c r="F27" t="n">
-        <v>1.30078125</v>
+        <v>1.29296875</v>
       </c>
       <c r="G27" t="n">
-        <v>0.753892369447779</v>
+        <v>0.8050100625628909</v>
       </c>
       <c r="H27" t="n">
-        <v>0.75375</v>
+        <v>0.805</v>
       </c>
       <c r="I27" t="n">
-        <v>0.75375</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="28">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8512502324222382</v>
+        <v>0.853676147795866</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2327704429626464</v>
+        <v>0.2552862167358398</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9221213882586766</v>
+        <v>0.9335027093919336</v>
       </c>
       <c r="F28" t="n">
-        <v>9.59765625</v>
+        <v>9.734375</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8512531250000001</v>
+        <v>0.8543746868659033</v>
       </c>
       <c r="H28" t="n">
-        <v>0.85125</v>
+        <v>0.85375</v>
       </c>
       <c r="I28" t="n">
-        <v>0.85125</v>
+        <v>0.85375</v>
       </c>
     </row>
     <row r="29">
@@ -1383,25 +1383,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8437023758352546</v>
+        <v>0.8561926987342722</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2353949546813964</v>
+        <v>0.2487001419067382</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9239870249189056</v>
+        <v>0.9332402077512983</v>
       </c>
       <c r="F29" t="n">
-        <v>9.7734375</v>
+        <v>9.5390625</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8441008203799655</v>
+        <v>0.85673828125</v>
       </c>
       <c r="H29" t="n">
-        <v>0.84375</v>
+        <v>0.85625</v>
       </c>
       <c r="I29" t="n">
-        <v>0.84375</v>
+        <v>0.85625</v>
       </c>
     </row>
     <row r="30">
@@ -1416,25 +1416,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8287491972543364</v>
+        <v>0.8461887125592651</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0462994575500488</v>
+        <v>0.0460877418518066</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9154025962662268</v>
+        <v>0.9132213326333288</v>
       </c>
       <c r="F30" t="n">
-        <v>1.26953125</v>
+        <v>1.31640625</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8287509843996099</v>
+        <v>0.8467232572115384</v>
       </c>
       <c r="H30" t="n">
-        <v>0.82875</v>
+        <v>0.8462499999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.82875</v>
+        <v>0.8462499999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1449,19 +1449,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8474714017815285</v>
+        <v>0.8475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0422248840332031</v>
+        <v>0.0589652061462402</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9129244557778486</v>
+        <v>0.9129682060512878</v>
       </c>
       <c r="F31" t="n">
         <v>1.3203125</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8478244328523447</v>
+        <v>0.8475</v>
       </c>
       <c r="H31" t="n">
         <v>0.8475</v>
@@ -1482,25 +1482,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7024776862448513</v>
+        <v>0.6924884681013307</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0132453441619873</v>
+        <v>0.0164108276367187</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7795861224132651</v>
+        <v>0.7700360627253919</v>
       </c>
       <c r="F32" t="n">
-        <v>1.30859375</v>
+        <v>1.23046875</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7025959043707135</v>
+        <v>0.692511564306923</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7025</v>
+        <v>0.6925</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7025</v>
+        <v>0.6925</v>
       </c>
     </row>
     <row r="33">
@@ -1515,25 +1515,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6944805617646875</v>
+        <v>0.6885928273604329</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0137369632720947</v>
+        <v>0.0168681144714355</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7736735854599091</v>
+        <v>0.7648610303814398</v>
       </c>
       <c r="F33" t="n">
-        <v>1.3125</v>
+        <v>1.26171875</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6961951343833971</v>
+        <v>0.6890584840552116</v>
       </c>
       <c r="H33" t="n">
-        <v>0.695</v>
+        <v>0.68875</v>
       </c>
       <c r="I33" t="n">
-        <v>0.695</v>
+        <v>0.68875</v>
       </c>
     </row>
     <row r="34">
@@ -1548,25 +1548,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8187219575888566</v>
+        <v>0.8287491972643707</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6240720748901367</v>
+        <v>0.6929833889007568</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9064119150744694</v>
+        <v>0.9241682760517252</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8671875</v>
+        <v>2.09765625</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8189012664165102</v>
+        <v>0.8287717036675918</v>
       </c>
       <c r="H34" t="n">
-        <v>0.81875</v>
+        <v>0.82875</v>
       </c>
       <c r="I34" t="n">
-        <v>0.81875</v>
+        <v>0.82875</v>
       </c>
     </row>
     <row r="35">
@@ -1581,25 +1581,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8312460447673737</v>
+        <v>0.8259717981064657</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6688539981842041</v>
+        <v>0.756718635559082</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9099494371839824</v>
+        <v>0.9093900586878668</v>
       </c>
       <c r="F35" t="n">
-        <v>1.94921875</v>
+        <v>2.00390625</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8312654702970298</v>
+        <v>0.8281882799919483</v>
       </c>
       <c r="H35" t="n">
-        <v>0.83125</v>
+        <v>0.82625</v>
       </c>
       <c r="I35" t="n">
-        <v>0.83125</v>
+        <v>0.82625</v>
       </c>
     </row>
     <row r="36">
@@ -1614,25 +1614,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8487161961517964</v>
+        <v>0.8624828098140334</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0761454105377197</v>
+        <v>0.0821900367736816</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9276932980831132</v>
+        <v>0.9409058806617544</v>
       </c>
       <c r="F36" t="n">
-        <v>5.9453125</v>
+        <v>5.33984375</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8490035719647682</v>
+        <v>0.8626381949611991</v>
       </c>
       <c r="H36" t="n">
-        <v>0.84875</v>
+        <v>0.8625</v>
       </c>
       <c r="I36" t="n">
-        <v>0.84875</v>
+        <v>0.8625</v>
       </c>
     </row>
     <row r="37">
@@ -1647,25 +1647,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8524981562384764</v>
+        <v>0.8499606129377122</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0893721580505371</v>
+        <v>0.09273076057434081</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9268339177119858</v>
+        <v>0.9301933137082108</v>
       </c>
       <c r="F37" t="n">
-        <v>5.35546875</v>
+        <v>5.515625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8525389396903575</v>
+        <v>0.8503040711751788</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8525</v>
+        <v>0.85</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8525</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="38">
@@ -1680,25 +1680,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7409767884042918</v>
+        <v>0.7825</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0360877513885498</v>
+        <v>0.031008243560791</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8232176451102819</v>
+        <v>0.866817917611985</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3359375</v>
+        <v>1.26171875</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7421557800456929</v>
+        <v>0.7825</v>
       </c>
       <c r="H38" t="n">
-        <v>0.74125</v>
+        <v>0.7825</v>
       </c>
       <c r="I38" t="n">
-        <v>0.74125</v>
+        <v>0.7825</v>
       </c>
     </row>
     <row r="39">
@@ -1713,25 +1713,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7287232967836601</v>
+        <v>0.7999974999374985</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0282874107360839</v>
+        <v>0.0299828052520751</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8088175551097194</v>
+        <v>0.8865055406596291</v>
       </c>
       <c r="F39" t="n">
-        <v>1.29296875</v>
+        <v>1.33203125</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7288811149459784</v>
+        <v>0.800005000281266</v>
       </c>
       <c r="H39" t="n">
-        <v>0.72875</v>
+        <v>0.8</v>
       </c>
       <c r="I39" t="n">
-        <v>0.72875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
@@ -1746,25 +1746,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8599824972651976</v>
+        <v>0.8874606092436974</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3067502975463867</v>
+        <v>0.2398421764373779</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9315808223801398</v>
+        <v>0.949724685779286</v>
       </c>
       <c r="F40" t="n">
-        <v>18.40625</v>
+        <v>17.7734375</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8601370693913793</v>
+        <v>0.8879654983570646</v>
       </c>
       <c r="H40" t="n">
-        <v>0.86</v>
+        <v>0.8875</v>
       </c>
       <c r="I40" t="n">
-        <v>0.86</v>
+        <v>0.8875</v>
       </c>
     </row>
     <row r="41">
@@ -1779,25 +1779,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8737375713140537</v>
+        <v>0.8774908115811582</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282681941986084</v>
+        <v>0.2411267757415771</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9463496646854044</v>
+        <v>0.9516871980449878</v>
       </c>
       <c r="F41" t="n">
-        <v>18.3203125</v>
+        <v>17.98828125</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8739463910564226</v>
+        <v>0.8775803683628112</v>
       </c>
       <c r="H41" t="n">
-        <v>0.87375</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>0.87375</v>
+        <v>0.8774999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1812,25 +1812,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8437023758352546</v>
+        <v>0.8511162267839687</v>
       </c>
       <c r="D42" t="n">
-        <v>1.807961463928223</v>
+        <v>1.835276126861572</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9420933880836756</v>
+        <v>0.946162163513522</v>
       </c>
       <c r="F42" t="n">
-        <v>1.4765625</v>
+        <v>1.484375</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8441008203799655</v>
+        <v>0.8523940561019672</v>
       </c>
       <c r="H42" t="n">
-        <v>0.84375</v>
+        <v>0.85125</v>
       </c>
       <c r="I42" t="n">
-        <v>0.84375</v>
+        <v>0.85125</v>
       </c>
     </row>
     <row r="43">
@@ -1845,25 +1845,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8662293066345356</v>
+        <v>0.8411698356416666</v>
       </c>
       <c r="D43" t="n">
-        <v>1.851978302001953</v>
+        <v>1.89443588256836</v>
       </c>
       <c r="E43" t="n">
-        <v>0.943718398239989</v>
+        <v>0.9305495659347872</v>
       </c>
       <c r="F43" t="n">
-        <v>1.49609375</v>
+        <v>1.4453125</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8664280018761726</v>
+        <v>0.8418507321075177</v>
       </c>
       <c r="H43" t="n">
-        <v>0.86625</v>
+        <v>0.8412500000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>0.86625</v>
+        <v>0.8412500000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1878,25 +1878,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.7648383364602875</v>
+        <v>0.8136093425313379</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0444207191467285</v>
+        <v>0.0460772514343261</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7650672816705104</v>
+        <v>0.8138207113794461</v>
       </c>
       <c r="F44" t="n">
-        <v>1.55078125</v>
+        <v>1.6171875</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7658362423930959</v>
+        <v>0.8148173380726698</v>
       </c>
       <c r="H44" t="n">
-        <v>0.765</v>
+        <v>0.81375</v>
       </c>
       <c r="I44" t="n">
-        <v>0.765</v>
+        <v>0.81375</v>
       </c>
     </row>
     <row r="45">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7637134504523229</v>
+        <v>0.7897608724214951</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0423729419708251</v>
+        <v>0.06851029396057121</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7637828986431165</v>
+        <v>0.7900861880386751</v>
       </c>
       <c r="F45" t="n">
-        <v>1.55859375</v>
+        <v>1.6484375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7639658380237648</v>
+        <v>0.7914644222739858</v>
       </c>
       <c r="H45" t="n">
-        <v>0.76375</v>
+        <v>0.79</v>
       </c>
       <c r="I45" t="n">
-        <v>0.76375</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="46">
@@ -1944,25 +1944,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8399799968745117</v>
+        <v>0.8562358478182395</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2579793930053711</v>
+        <v>0.3318879604339599</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9160588503678148</v>
+        <v>0.943634022712642</v>
       </c>
       <c r="F46" t="n">
-        <v>9.66796875</v>
+        <v>9.65234375</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8401280648328217</v>
+        <v>0.8563528536414566</v>
       </c>
       <c r="H46" t="n">
-        <v>0.84</v>
+        <v>0.85625</v>
       </c>
       <c r="I46" t="n">
-        <v>0.84</v>
+        <v>0.85625</v>
       </c>
     </row>
     <row r="47">
@@ -1977,25 +1977,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8374796854685468</v>
+        <v>0.8637468065158795</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2646746635437011</v>
+        <v>0.2514882087707519</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9188088675554222</v>
+        <v>0.9407715048219052</v>
       </c>
       <c r="F47" t="n">
-        <v>9.96875</v>
+        <v>9.69921875</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8377212057354035</v>
+        <v>0.8637679080408041</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8375</v>
+        <v>0.86375</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8375</v>
+        <v>0.86375</v>
       </c>
     </row>
     <row r="48">
@@ -2010,25 +2010,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.847480934521019</v>
+        <v>0.8562493261708221</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06457352638244621</v>
+        <v>0.06503820419311521</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9137744610903816</v>
+        <v>0.9101463134144588</v>
       </c>
       <c r="F48" t="n">
-        <v>1.54296875</v>
+        <v>1.57421875</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8476314415422809</v>
+        <v>0.8562727349433734</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8475</v>
+        <v>0.85625</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8475</v>
+        <v>0.85625</v>
       </c>
     </row>
     <row r="49">
@@ -2043,25 +2043,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8387008561635807</v>
+        <v>0.8624982812070303</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06500101089477529</v>
+        <v>0.07194852828979489</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9106244414027588</v>
+        <v>0.9270589191182446</v>
       </c>
       <c r="F49" t="n">
-        <v>1.59765625</v>
+        <v>1.58984375</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8392420871817978</v>
+        <v>0.862507344163109</v>
       </c>
       <c r="H49" t="n">
-        <v>0.83875</v>
+        <v>0.8625</v>
       </c>
       <c r="I49" t="n">
-        <v>0.83875</v>
+        <v>0.8625</v>
       </c>
     </row>
     <row r="50">
@@ -2076,25 +2076,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6894720463837807</v>
+        <v>0.7175</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0302045345306396</v>
+        <v>0.0320880413055419</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7667110419440122</v>
+        <v>0.7824173901086882</v>
       </c>
       <c r="F50" t="n">
-        <v>1.484375</v>
+        <v>1.46484375</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6911619082379445</v>
+        <v>0.717508968806055</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7175</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7175</v>
       </c>
     </row>
     <row r="51">
@@ -2109,25 +2109,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.6837485175572782</v>
+        <v>0.7125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0347228050231933</v>
+        <v>0.0410306453704834</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7537359608497552</v>
+        <v>0.7746798417490109</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5625</v>
+        <v>1.27734375</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6837491718542964</v>
+        <v>0.7125</v>
       </c>
       <c r="H51" t="n">
-        <v>0.68375</v>
+        <v>0.7125</v>
       </c>
       <c r="I51" t="n">
-        <v>0.68375</v>
+        <v>0.7125</v>
       </c>
     </row>
     <row r="52">
@@ -2142,25 +2142,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.8261416165993631</v>
+        <v>0.8724904365436543</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6673731803894043</v>
+        <v>0.6849062442779541</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9103244395277472</v>
+        <v>0.944180901130632</v>
       </c>
       <c r="F52" t="n">
-        <v>1.9453125</v>
+        <v>2.19140625</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8271743421052631</v>
+        <v>0.8725790554607349</v>
       </c>
       <c r="H52" t="n">
-        <v>0.82625</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>0.82625</v>
+        <v>0.8725000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2175,25 +2175,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.8274396008403362</v>
+        <v>0.8387411809654176</v>
       </c>
       <c r="D53" t="n">
-        <v>0.688312292098999</v>
+        <v>0.6723833084106445</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9069837936487104</v>
+        <v>0.9202182513640712</v>
       </c>
       <c r="F53" t="n">
-        <v>2.1171875</v>
+        <v>2.08203125</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8278866374589267</v>
+        <v>0.8387979014028155</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8275</v>
+        <v>0.83875</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8275</v>
+        <v>0.83875</v>
       </c>
     </row>
     <row r="54">
@@ -2208,25 +2208,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8274870612061207</v>
+        <v>0.8549492296918768</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0996809005737304</v>
+        <v>0.1011178493499755</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9106619416371352</v>
+        <v>0.9366496040600254</v>
       </c>
       <c r="F54" t="n">
-        <v>5.75390625</v>
+        <v>5.60546875</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8275672393420485</v>
+        <v>0.8554227820372398</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8275</v>
+        <v>0.855</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8275</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="55">
@@ -2241,25 +2241,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8362246651320016</v>
+        <v>0.845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1146132946014404</v>
+        <v>0.1061632633209228</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9235995224970156</v>
+        <v>0.9372996081225508</v>
       </c>
       <c r="F55" t="n">
-        <v>5.625</v>
+        <v>5.5078125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8364111163227017</v>
+        <v>0.845</v>
       </c>
       <c r="H55" t="n">
-        <v>0.83625</v>
+        <v>0.845</v>
       </c>
       <c r="I55" t="n">
-        <v>0.83625</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="56">
@@ -2274,25 +2274,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.6947023105655349</v>
+        <v>0.6730995227585685</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0451617240905761</v>
+        <v>0.0418429374694824</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7695798098738117</v>
+        <v>0.7376796104975656</v>
       </c>
       <c r="F56" t="n">
-        <v>1.3046875</v>
+        <v>1.2421875</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6956588235294118</v>
+        <v>0.6789064749582476</v>
       </c>
       <c r="H56" t="n">
-        <v>0.695</v>
+        <v>0.675</v>
       </c>
       <c r="I56" t="n">
-        <v>0.695</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="57">
@@ -2307,25 +2307,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.6743037415669103</v>
+        <v>0.6935517787157071</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0153095722198486</v>
+        <v>0.0182373523712158</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7432546453415335</v>
+        <v>0.7580109875686724</v>
       </c>
       <c r="F57" t="n">
-        <v>1.28125</v>
+        <v>1.265625</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6763559770788811</v>
+        <v>0.6985174390826565</v>
       </c>
       <c r="H57" t="n">
-        <v>0.675</v>
+        <v>0.695</v>
       </c>
       <c r="I57" t="n">
-        <v>0.675</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="58">
@@ -2340,25 +2340,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.6881872138076787</v>
+        <v>0.7185714914016799</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3848998546600342</v>
+        <v>0.3538675308227539</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7597047481546759</v>
+        <v>0.7916424477652985</v>
       </c>
       <c r="F58" t="n">
-        <v>30.18359375</v>
+        <v>29.59765625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6899793665483116</v>
+        <v>0.7243013441700532</v>
       </c>
       <c r="H58" t="n">
-        <v>0.68875</v>
+        <v>0.72</v>
       </c>
       <c r="I58" t="n">
-        <v>0.68875</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="59">
@@ -2373,25 +2373,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.7073160505440902</v>
+        <v>0.7054339162952331</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3993165493011474</v>
+        <v>0.3547005653381347</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7805673785461159</v>
+        <v>0.7833736460852881</v>
       </c>
       <c r="F59" t="n">
-        <v>30.48046875</v>
+        <v>29.4921875</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7126734623623011</v>
+        <v>0.7131881185253777</v>
       </c>
       <c r="H59" t="n">
-        <v>0.70875</v>
+        <v>0.7075</v>
       </c>
       <c r="I59" t="n">
-        <v>0.70875</v>
+        <v>0.7075</v>
       </c>
     </row>
     <row r="60">
@@ -2406,25 +2406,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.7137057123299875</v>
+        <v>0.7287179680434127</v>
       </c>
       <c r="D60" t="n">
-        <v>1.790305852890015</v>
+        <v>1.640959739685059</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7802861267882922</v>
+        <v>0.8088488053050331</v>
       </c>
       <c r="F60" t="n">
-        <v>1.4609375</v>
+        <v>1.46875</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7138421669793621</v>
+        <v>0.734179646440516</v>
       </c>
       <c r="H60" t="n">
-        <v>0.71375</v>
+        <v>0.73</v>
       </c>
       <c r="I60" t="n">
-        <v>0.71375</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="61">
@@ -2439,25 +2439,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.6820826944140197</v>
+        <v>0.7084424719719806</v>
       </c>
       <c r="D61" t="n">
-        <v>1.808507919311524</v>
+        <v>1.851735591888428</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7754423465146657</v>
+        <v>0.7908611928824556</v>
       </c>
       <c r="F61" t="n">
-        <v>1.4765625</v>
+        <v>2.0234375</v>
       </c>
       <c r="G61" t="n">
-        <v>0.683343119145006</v>
+        <v>0.7095231885968215</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6825</v>
+        <v>0.70875</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6825</v>
+        <v>0.70875</v>
       </c>
     </row>
     <row r="62">
@@ -2472,25 +2472,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.6006891438593527</v>
+        <v>0.6260168295653724</v>
       </c>
       <c r="D62" t="n">
-        <v>0.025003433227539</v>
+        <v>0.0506346225738525</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6013443834023963</v>
+        <v>0.6261882886768042</v>
       </c>
       <c r="F62" t="n">
-        <v>1.59375</v>
+        <v>1.515625</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6019392677561283</v>
+        <v>0.6264910714285715</v>
       </c>
       <c r="H62" t="n">
-        <v>0.60125</v>
+        <v>0.62625</v>
       </c>
       <c r="I62" t="n">
-        <v>0.60125</v>
+        <v>0.62625</v>
       </c>
     </row>
     <row r="63">
@@ -2505,25 +2505,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6237129582025225</v>
+        <v>0.6223678345243231</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0240578651428222</v>
+        <v>0.0287530422210693</v>
       </c>
       <c r="E63" t="n">
-        <v>0.623725773286083</v>
+        <v>0.6225476409227557</v>
       </c>
       <c r="F63" t="n">
-        <v>1.6171875</v>
+        <v>1.55859375</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6237714460784314</v>
+        <v>0.6227340791738382</v>
       </c>
       <c r="H63" t="n">
-        <v>0.62375</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>0.62375</v>
+        <v>0.6225000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2538,25 +2538,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.6549870621765543</v>
+        <v>0.7144538315088053</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3129146099090576</v>
+        <v>0.2572765350341797</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7090575566097289</v>
+        <v>0.7777861111631947</v>
       </c>
       <c r="F64" t="n">
-        <v>15.4140625</v>
+        <v>15.31640625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6550478199718706</v>
+        <v>0.7165043300267675</v>
       </c>
       <c r="H64" t="n">
-        <v>0.655</v>
+        <v>0.715</v>
       </c>
       <c r="I64" t="n">
-        <v>0.655</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="65">
@@ -2571,25 +2571,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.6699752486077343</v>
+        <v>0.695</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2576861381530761</v>
+        <v>0.2129311561584472</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7422796392477453</v>
+        <v>0.7603860024125151</v>
       </c>
       <c r="F65" t="n">
-        <v>16.08203125</v>
+        <v>15.6953125</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6700845258860525</v>
+        <v>0.6950086875542971</v>
       </c>
       <c r="H65" t="n">
-        <v>0.67</v>
+        <v>0.695</v>
       </c>
       <c r="I65" t="n">
-        <v>0.67</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="66">
@@ -2604,25 +2604,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.6749959374746092</v>
+        <v>0.6671213173637706</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0640583038330078</v>
+        <v>0.0515224933624267</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7279045494034337</v>
+        <v>0.721388883680523</v>
       </c>
       <c r="F66" t="n">
-        <v>1.54296875</v>
+        <v>1.58203125</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6750256264414873</v>
+        <v>0.668156648102919</v>
       </c>
       <c r="H66" t="n">
-        <v>0.675</v>
+        <v>0.6675</v>
       </c>
       <c r="I66" t="n">
-        <v>0.675</v>
+        <v>0.6675</v>
       </c>
     </row>
     <row r="67">
@@ -2637,25 +2637,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6624367045085144</v>
+        <v>0.6899883747093676</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0373589992523193</v>
+        <v>0.0371649265289306</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7196794979968626</v>
+        <v>0.7566859792873707</v>
       </c>
       <c r="F67" t="n">
-        <v>1.54296875</v>
+        <v>1.51953125</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6625805296505481</v>
+        <v>0.6900543834974215</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6625</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6625</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2670,25 +2670,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.6399729972997299</v>
+        <v>0.6249531203120312</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0170905590057373</v>
+        <v>0.0170609951019287</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6864730404565028</v>
+        <v>0.6734042087763049</v>
       </c>
       <c r="F68" t="n">
-        <v>1.4296875</v>
+        <v>1.453125</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6400180055141886</v>
+        <v>0.6251016139420581</v>
       </c>
       <c r="H68" t="n">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="I68" t="n">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="69">
@@ -2703,25 +2703,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6098244297719088</v>
+        <v>0.5935880778398656</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0175442695617675</v>
+        <v>0.0467398166656494</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6788917430733943</v>
+        <v>0.6280039250245315</v>
       </c>
       <c r="F69" t="n">
-        <v>1.4375</v>
+        <v>1.453125</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6102671074628547</v>
+        <v>0.5939628405448718</v>
       </c>
       <c r="H69" t="n">
-        <v>0.61</v>
+        <v>0.59375</v>
       </c>
       <c r="I69" t="n">
-        <v>0.61</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="70">
@@ -2736,25 +2736,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.6706555712105201</v>
+        <v>0.682138400790969</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3977563381195068</v>
+        <v>0.4145233631134033</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7325452034075214</v>
+        <v>0.7649079056744105</v>
       </c>
       <c r="F70" t="n">
-        <v>1.859375</v>
+        <v>2.23828125</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6723557547027272</v>
+        <v>0.6832227618336043</v>
       </c>
       <c r="H70" t="n">
-        <v>0.67125</v>
+        <v>0.6825</v>
       </c>
       <c r="I70" t="n">
-        <v>0.67125</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="71">
@@ -2769,25 +2769,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7019298767504196</v>
+        <v>0.7298784384594701</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4023776054382324</v>
+        <v>0.3755750656127929</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7761236007725049</v>
+        <v>0.8133019581372384</v>
       </c>
       <c r="F71" t="n">
-        <v>1.81640625</v>
+        <v>2.015625</v>
       </c>
       <c r="G71" t="n">
-        <v>0.703910643993072</v>
+        <v>0.7303416170457889</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7025</v>
+        <v>0.73</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7025</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="72">
@@ -2802,25 +2802,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7049778737553987</v>
+        <v>0.7037486113259552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.134394884109497</v>
+        <v>0.0709404945373535</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7708985681160507</v>
+        <v>0.770867317920737</v>
       </c>
       <c r="F72" t="n">
-        <v>5.6328125</v>
+        <v>5.4921875</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7050967796387644</v>
+        <v>0.7037670160504013</v>
       </c>
       <c r="H72" t="n">
-        <v>0.705</v>
+        <v>0.70375</v>
       </c>
       <c r="I72" t="n">
-        <v>0.705</v>
+        <v>0.70375</v>
       </c>
     </row>
     <row r="73">
@@ -2835,25 +2835,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.66</v>
+        <v>0.6687505175789338</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1279160976409912</v>
+        <v>0.08709716796875</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7288358052237827</v>
+        <v>0.7425765161032256</v>
       </c>
       <c r="F73" t="n">
-        <v>5.94921875</v>
+        <v>5.59765625</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6600082500515628</v>
+        <v>0.6687531250000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0.66</v>
+        <v>0.66875</v>
       </c>
       <c r="I73" t="n">
-        <v>0.66</v>
+        <v>0.66875</v>
       </c>
     </row>
     <row r="74">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.7285060606060605</v>
+        <v>0.7307640601150641</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0130872726440429</v>
+        <v>0.0172936916351318</v>
       </c>
       <c r="E74" t="n">
-        <v>0.810855067844174</v>
+        <v>0.8019300120625754</v>
       </c>
       <c r="F74" t="n">
-        <v>1.16015625</v>
+        <v>1.21875</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7294699041549577</v>
+        <v>0.7327795667447308</v>
       </c>
       <c r="H74" t="n">
-        <v>0.72875</v>
+        <v>0.73125</v>
       </c>
       <c r="I74" t="n">
-        <v>0.72875</v>
+        <v>0.73125</v>
       </c>
     </row>
     <row r="75">
@@ -2901,25 +2901,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.7318123454321918</v>
+        <v>0.7558597167680631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0449080467224121</v>
+        <v>0.01534104347229</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8057862861642885</v>
+        <v>0.8340052125325783</v>
       </c>
       <c r="F75" t="n">
-        <v>1.14453125</v>
+        <v>1.4140625</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7403885091648646</v>
+        <v>0.7577514845008051</v>
       </c>
       <c r="H75" t="n">
-        <v>0.73375</v>
+        <v>0.75625</v>
       </c>
       <c r="I75" t="n">
-        <v>0.73375</v>
+        <v>0.75625</v>
       </c>
     </row>
     <row r="76">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.7680486108389826</v>
+        <v>0.7352973381388616</v>
       </c>
       <c r="D76" t="n">
-        <v>0.444908857345581</v>
+        <v>0.2983193397521972</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8387614922593266</v>
+        <v>0.7996987481171758</v>
       </c>
       <c r="F76" t="n">
-        <v>28.67578125</v>
+        <v>27.21875</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7718308723048892</v>
+        <v>0.7394807731331169</v>
       </c>
       <c r="H76" t="n">
-        <v>0.76875</v>
+        <v>0.73625</v>
       </c>
       <c r="I76" t="n">
-        <v>0.76875</v>
+        <v>0.73625</v>
       </c>
     </row>
     <row r="77">
@@ -2967,25 +2967,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7373818151689292</v>
+        <v>0.7619911957604344</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3430244922637939</v>
+        <v>0.3289411067962646</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7892049325308284</v>
+        <v>0.8143675897974363</v>
       </c>
       <c r="F77" t="n">
-        <v>27.84765625</v>
+        <v>27.58984375</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7378543901171492</v>
+        <v>0.7645907010609528</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7375</v>
+        <v>0.7625</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7375</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="78">
@@ -3000,25 +3000,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.738028252717617</v>
+        <v>0.7562442868862065</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2741575241088867</v>
+        <v>0.1867470741271972</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8223238895243095</v>
+        <v>0.8294176838605241</v>
       </c>
       <c r="F78" t="n">
-        <v>1.55078125</v>
+        <v>1.546875</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7412186386157384</v>
+        <v>0.7562598447344735</v>
       </c>
       <c r="H78" t="n">
-        <v>0.73875</v>
+        <v>0.75625</v>
       </c>
       <c r="I78" t="n">
-        <v>0.73875</v>
+        <v>0.75625</v>
       </c>
     </row>
     <row r="79">
@@ -3033,25 +3033,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.740601826829532</v>
+        <v>0.7473262748703706</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2175512313842773</v>
+        <v>0.1978688240051269</v>
       </c>
       <c r="E79" t="n">
-        <v>0.806311289445559</v>
+        <v>0.8279739248370303</v>
       </c>
       <c r="F79" t="n">
-        <v>1.42578125</v>
+        <v>1.3984375</v>
       </c>
       <c r="G79" t="n">
-        <v>0.743502840909091</v>
+        <v>0.748088810408689</v>
       </c>
       <c r="H79" t="n">
-        <v>0.74125</v>
+        <v>0.7475000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>0.74125</v>
+        <v>0.7475000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3066,25 +3066,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.6712320207820619</v>
+        <v>0.6583319526127301</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0164682865142822</v>
+        <v>0.0164129734039306</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6712698204363777</v>
+        <v>0.6586634916468228</v>
       </c>
       <c r="F80" t="n">
-        <v>1.47265625</v>
+        <v>1.49609375</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6713168431647121</v>
+        <v>0.6594189968344889</v>
       </c>
       <c r="H80" t="n">
-        <v>0.67125</v>
+        <v>0.6587499999999999</v>
       </c>
       <c r="I80" t="n">
-        <v>0.67125</v>
+        <v>0.6587499999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3099,25 +3099,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.6549956874730466</v>
+        <v>0.6424731859917121</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0168225765228271</v>
+        <v>0.0175216197967529</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6550103438146488</v>
+        <v>0.642522765767286</v>
       </c>
       <c r="F81" t="n">
-        <v>1.3671875</v>
+        <v>1.3359375</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6550241263571075</v>
+        <v>0.6425748979374933</v>
       </c>
       <c r="H81" t="n">
-        <v>0.655</v>
+        <v>0.6425</v>
       </c>
       <c r="I81" t="n">
-        <v>0.655</v>
+        <v>0.6425</v>
       </c>
     </row>
     <row r="82">
@@ -3132,25 +3132,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.657495718723242</v>
+        <v>0.6647695131943533</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2638421058654785</v>
+        <v>0.2203540802001953</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7408952555953475</v>
+        <v>0.7403296270601691</v>
       </c>
       <c r="F82" t="n">
-        <v>15.37890625</v>
+        <v>15.515625</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6575243138676551</v>
+        <v>0.6653716493585445</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6575</v>
+        <v>0.665</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6575</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="83">
@@ -3165,25 +3165,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.6374320206282232</v>
+        <v>0.6099951249695311</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2614352703094482</v>
+        <v>0.218416690826416</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7384296151850949</v>
+        <v>0.6994762467265421</v>
       </c>
       <c r="F83" t="n">
-        <v>16.30078125</v>
+        <v>15.19921875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.637651051732873</v>
+        <v>0.6100207511672531</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6375</v>
+        <v>0.61</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6375</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="84">
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.7169586224604825</v>
+        <v>0.7173728106103715</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0387179851531982</v>
+        <v>0.0375487804412841</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7603422521390759</v>
+        <v>0.7621235132719579</v>
       </c>
       <c r="F84" t="n">
-        <v>1.46875</v>
+        <v>1.484375</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7190230672335065</v>
+        <v>0.717820328593522</v>
       </c>
       <c r="H84" t="n">
         <v>0.7175</v>
@@ -3231,25 +3231,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.7024962812267578</v>
+        <v>0.6721803498695498</v>
       </c>
       <c r="D85" t="n">
-        <v>0.043299913406372</v>
+        <v>0.0311176776885986</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7671047944049652</v>
+        <v>0.7322264514153214</v>
       </c>
       <c r="F85" t="n">
-        <v>1.44140625</v>
+        <v>1.43359375</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7025276890575095</v>
+        <v>0.6730741176470587</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7025</v>
+        <v>0.6725</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7025</v>
+        <v>0.6725</v>
       </c>
     </row>
     <row r="86">
@@ -3264,25 +3264,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.7424323855430726</v>
+        <v>0.7612130613756664</v>
       </c>
       <c r="D86" t="n">
-        <v>0.012833833694458</v>
+        <v>0.0136129856109619</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8299426871417946</v>
+        <v>0.8404677529234557</v>
       </c>
       <c r="F86" t="n">
-        <v>1.42578125</v>
+        <v>1.30078125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7426991478499164</v>
+        <v>0.7613689024390244</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7425</v>
+        <v>0.76125</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7425</v>
+        <v>0.76125</v>
       </c>
     </row>
     <row r="87">
@@ -3297,25 +3297,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.7487111274162771</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0119757652282714</v>
+        <v>0.0130829811096191</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8432052700329377</v>
+        <v>0.8230488940555879</v>
       </c>
       <c r="F87" t="n">
-        <v>1.2578125</v>
+        <v>1.578125</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.7488618667917448</v>
       </c>
       <c r="H87" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.74875</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7524999999999999</v>
+        <v>0.74875</v>
       </c>
     </row>
     <row r="88">
@@ -3330,25 +3330,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.723748705059915</v>
+        <v>0.7656042261157626</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1693551540374755</v>
+        <v>0.1798334121704101</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7962674766717293</v>
+        <v>0.8377646110288189</v>
       </c>
       <c r="F88" t="n">
-        <v>1.58984375</v>
+        <v>1.6171875</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7237496718667967</v>
+        <v>0.7690179067974419</v>
       </c>
       <c r="H88" t="n">
-        <v>0.72375</v>
+        <v>0.76625</v>
       </c>
       <c r="I88" t="n">
-        <v>0.72375</v>
+        <v>0.76625</v>
       </c>
     </row>
     <row r="89">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.726977786267191</v>
+        <v>0.7326205525501773</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1844544410705566</v>
+        <v>0.1805951595306396</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8071206695041844</v>
+        <v>0.8043831523947025</v>
       </c>
       <c r="F89" t="n">
-        <v>1.5703125</v>
+        <v>1.87109375</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7290980160604629</v>
+        <v>0.7375288945682027</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7275</v>
+        <v>0.73375</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7275</v>
+        <v>0.73375</v>
       </c>
     </row>
     <row r="90">
@@ -3396,25 +3396,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.7178173374977069</v>
+        <v>0.705985826001955</v>
       </c>
       <c r="D90" t="n">
-        <v>0.049612283706665</v>
+        <v>0.0509140491485595</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7834298964368528</v>
+        <v>0.7861611635072718</v>
       </c>
       <c r="F90" t="n">
-        <v>4.08984375</v>
+        <v>3.7734375</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7214754978338527</v>
+        <v>0.7068919986953032</v>
       </c>
       <c r="H90" t="n">
-        <v>0.71875</v>
+        <v>0.70625</v>
       </c>
       <c r="I90" t="n">
-        <v>0.71875</v>
+        <v>0.70625</v>
       </c>
     </row>
     <row r="91">
@@ -3429,25 +3429,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.728545121670881</v>
+        <v>0.720404541714017</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0623974800109863</v>
+        <v>0.0617961883544921</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8070019187619922</v>
+        <v>0.7942143388396178</v>
       </c>
       <c r="F91" t="n">
-        <v>4.703125</v>
+        <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7293466956292787</v>
+        <v>0.7237623051422208</v>
       </c>
       <c r="H91" t="n">
-        <v>0.72875</v>
+        <v>0.7212499999999999</v>
       </c>
       <c r="I91" t="n">
-        <v>0.72875</v>
+        <v>0.7212499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,1346 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Naive Bayes</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7424806855685568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7398829407387489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7624168495351702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7499531144507514</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7662269884725549</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.734698192786163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7337237876981305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7724914682700902</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7337354383382478</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7361910572155048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9049881231442412</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9087501425783476</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8949803094233474</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8887327877614362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8862388018770188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.902465861344538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8949803094233474</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8812234597886004</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8962268122363563</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8924260378160984</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.887498593714843</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8937262534950636</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8899793703583307</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9087410168903556</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8962443257374393</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8899243177653101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8837494550772736</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8849784326473457</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8787494316326323</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8887251360124783</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8024975312345701</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7949615538496161</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8024308538239836</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.808750298828592</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8262491855354216</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.802475310031003</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7749578030056763</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8174520829686679</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8087072594974987</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8061521726216995</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8624742129479133</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8362246667156312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8374979686992176</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8549981874546865</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8299978749867187</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8474466036414566</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8512353563007167</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8674751506588982</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8487502363284943</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8587281462589021</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8449883743460569</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8412413180202353</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8587493378813139</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8399279635315378</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8674983437085928</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8674834358435843</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8562493261623991</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.8624742147210501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8612502167972137</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8612077097417061</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.804777952962817</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.793729694695735</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7961687898089173</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8012192519678272</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.8023369391852588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7723434959349593</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.7647324048526255</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8033065690516119</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7712274806977409</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7798183626367441</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7986244466890468</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.7849838733873388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.8049975624390611</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8022750682085555</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8124929683544698</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.81248593670894</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8025</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8073675560892926</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8198243144321188</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.7962299408206351</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.804963429271586</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8262502714847991</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8099928745991963</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8024308538239836</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8135533404456012</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8061909512043024</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8162215725740289</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8162456932988121</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.8137491269517608</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9665831244778612</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.933249791144528</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Custom AI Model</t>
+          <t>Naive Bayes</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,16 +468,136 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PCA</t>
+          <t>No Technique</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Custom AI Model</t>
+          <t>Naive Bayes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.933249791144528</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9665831244778612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9665831244778612</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9665831244778612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No Technique</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9665831244778612</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8997493734335839</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8329156223893066</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9665831244778612</v>
+        <v>0.8329156223893065</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9665831244778612</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9665831244778612</v>
+        <v>0.9326599326599326</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9665831244778612</v>
+        <v>0.8950004244121891</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.8997493734335839</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.8981620718462824</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>MLP</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9665831244778612</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,36 @@
           <t>F1-Score</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Processing Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ROC AUC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,11 +488,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Naive Bayes</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7916666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0206162929534912</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +521,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8997493734335839</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.009204864501953101</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8329156223893066</v>
+        <v>0.9665831244778612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1120295524597168</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9933333333333332</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.88671875</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9696969696969696</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9666666666666668</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9666666666666668</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +587,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>DecisionTree</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8329156223893065</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0281538963317871</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7734375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +620,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9665831244778612</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2764220237731933</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +653,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9326599326599326</v>
+        <v>0.9665831244778612</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0200996398925781</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9696969696969696</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9666666666666668</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9666666666666668</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +686,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LogReg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8950004244121891</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0265321731567382</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +719,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>GradientBoost</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8997493734335839</v>
+        <v>0.9665831244778612</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1955735683441162</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9741666666666668</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.12890625</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9696969696969696</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9666666666666668</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9666666666666668</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +752,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8981620718462824</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.077242374420166</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.50390625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +785,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>Custom AI Model</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0213708877563476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7109375</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
